--- a/スケジュール管理_Sylph.xlsx
+++ b/スケジュール管理_Sylph.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\研修\01_設計\ドキュメントフォーマット\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5B63BA-97AD-4876-B68B-C2F452C2FA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1644" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1650" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
@@ -21,9 +15,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$51</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>メモ</t>
   </si>
@@ -290,17 +284,38 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>内部設計</t>
+    <rPh sb="0" eb="4">
+      <t>ナイブセッケイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>斎藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>佐竹</t>
+    <rPh sb="0" eb="2">
+      <t>サタケ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,12 +525,12 @@
   <cellStyles count="8">
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="パーセント" xfId="4" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="完了" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="完了" xfId="3"/>
     <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="日付" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="日付" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="標準 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="表のテキスト" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 2" xfId="7"/>
+    <cellStyle name="表のテキスト" xfId="6"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -535,7 +550,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -572,7 +587,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="177" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -611,7 +626,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -650,7 +665,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="178" formatCode="m/d;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -695,7 +710,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -734,7 +749,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="178" formatCode="m/d;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -779,7 +794,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -818,7 +833,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -886,7 +901,7 @@
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -961,7 +976,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="タスク リスト" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="タスク リスト" pivot="0" count="4">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="totalRow" dxfId="13"/>
@@ -980,19 +995,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="タスク_3" displayName="タスク_3" ref="C1:J43" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="C1:J43" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="タスク_3" displayName="タスク_3" ref="C1:J43" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="C1:J43"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="開始_x000a_予定" dataDxfId="5" dataCellStyle="日付"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="完了_x000a_予定" dataDxfId="4" dataCellStyle="日付"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="完了_x000a_日" dataDxfId="3" dataCellStyle="日付"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="達成率" dataDxfId="2" dataCellStyle="パーセント"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="完了" dataDxfId="1" dataCellStyle="完了">
+    <tableColumn id="1" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
+    <tableColumn id="7" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
+    <tableColumn id="2" name="開始_x000a_予定" dataDxfId="5" dataCellStyle="日付"/>
+    <tableColumn id="8" name="完了_x000a_予定" dataDxfId="4" dataCellStyle="日付"/>
+    <tableColumn id="3" name="完了_x000a_日" dataDxfId="3" dataCellStyle="日付"/>
+    <tableColumn id="4" name="達成率" dataDxfId="2" dataCellStyle="パーセント"/>
+    <tableColumn id="5" name="完了" dataDxfId="1" dataCellStyle="完了">
       <calculatedColumnFormula>--(タスク_3[[#This Row],[達成率]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="メモ" dataDxfId="0" dataCellStyle="表のテキスト"/>
+    <tableColumn id="6" name="メモ" dataDxfId="0" dataCellStyle="表のテキスト"/>
   </tableColumns>
   <tableStyleInfo name="タスク リスト" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1193,14 +1208,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -1208,27 +1223,27 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="13" customWidth="1"/>
     <col min="9" max="9" width="3" style="5" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.44140625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.5546875" style="5"/>
+    <col min="10" max="10" width="28.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1258,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1279,7 +1294,7 @@
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I2" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1287,7 +1302,7 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1307,14 +1322,16 @@
         <v>44694</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I3" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1334,14 +1351,16 @@
         <v>44694</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I4" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1361,14 +1380,16 @@
         <v>44694</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I5" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1388,14 +1409,16 @@
         <v>44694</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I6" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1415,14 +1438,16 @@
         <v>44694</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I7" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1442,14 +1467,16 @@
         <v>44694</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I8" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1469,14 +1496,16 @@
         <v>44694</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I9" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1496,14 +1525,16 @@
         <v>44694</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I10" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1523,14 +1554,16 @@
         <v>44694</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I11" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1550,14 +1583,16 @@
         <v>44694</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I12" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1577,14 +1612,16 @@
         <v>44694</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I13" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1604,14 +1641,16 @@
         <v>44694</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I14" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1631,14 +1670,16 @@
         <v>44694</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I15" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1658,14 +1699,16 @@
         <v>44694</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I16" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1685,14 +1728,16 @@
         <v>44694</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I17" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1712,103 +1757,177 @@
         <v>44694</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9">
+        <v>0.8</v>
+      </c>
       <c r="I18" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="7">
+        <v>44691</v>
+      </c>
+      <c r="F19" s="7">
+        <v>44694</v>
+      </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9">
+        <v>0.5</v>
+      </c>
       <c r="I19" s="11"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="7">
+        <v>44691</v>
+      </c>
+      <c r="F20" s="7">
+        <v>44694</v>
+      </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="9">
+        <v>0.5</v>
+      </c>
       <c r="I20" s="11"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="7">
+        <v>44691</v>
+      </c>
+      <c r="F21" s="7">
+        <v>44694</v>
+      </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="9">
+        <v>0.5</v>
+      </c>
       <c r="I21" s="11"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="7">
+        <v>44691</v>
+      </c>
+      <c r="F22" s="7">
+        <v>44694</v>
+      </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="9">
+        <v>0.5</v>
+      </c>
       <c r="I22" s="11"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="7">
+        <v>44691</v>
+      </c>
+      <c r="F23" s="7">
+        <v>44694</v>
+      </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="9">
+        <v>0.5</v>
+      </c>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="7">
+        <v>44691</v>
+      </c>
+      <c r="F24" s="7">
+        <v>44694</v>
+      </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="9">
+        <v>0.5</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -1817,7 +1936,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1831,7 +1950,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1845,7 +1964,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1859,7 +1978,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1873,7 +1992,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1887,7 +2006,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1901,7 +2020,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1915,7 +2034,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1929,7 +2048,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1943,7 +2062,7 @@
       <c r="I34" s="11"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1957,7 +2076,7 @@
       <c r="I35" s="11"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1971,7 +2090,7 @@
       <c r="I36" s="11"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1985,7 +2104,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -1999,7 +2118,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2013,7 +2132,7 @@
       <c r="I39" s="11"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2030,7 +2149,7 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2047,7 +2166,7 @@
       </c>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2064,7 +2183,7 @@
       </c>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2081,7 +2200,7 @@
       </c>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2095,7 +2214,7 @@
       <c r="I44" s="11"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2109,7 +2228,7 @@
       <c r="I45" s="11"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2123,7 +2242,7 @@
       <c r="I46" s="11"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2137,7 +2256,7 @@
       <c r="I47" s="11"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2151,7 +2270,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2165,7 +2284,7 @@
       <c r="I49" s="11"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2179,7 +2298,7 @@
       <c r="I50" s="11"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2211,13 +2330,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="タスク表の見出しは [完了] です。タスク完了時に自動的に更新されるアイコン インジケーターです。この列の空白セルは進行中のタスクを示します" sqref="I1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H51" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="タスク表の見出しは [完了] です。タスク完了時に自動的に更新されるアイコン インジケーターです。この列の空白セルは進行中のタスクを示します" sqref="I1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H51">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/スケジュール管理_Sylph.xlsx
+++ b/スケジュール管理_Sylph.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\Sylph Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE1F56F-7FEE-4B16-A6AD-6077E1BA01C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1650" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
@@ -15,9 +21,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$51</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -309,13 +315,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,12 +531,12 @@
   <cellStyles count="8">
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="パーセント" xfId="4" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="完了" xfId="3"/>
+    <cellStyle name="完了" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="日付" xfId="5"/>
+    <cellStyle name="日付" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="標準 2" xfId="7"/>
-    <cellStyle name="表のテキスト" xfId="6"/>
+    <cellStyle name="標準 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="表のテキスト" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -550,7 +556,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -587,7 +593,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="177" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -626,7 +632,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -665,7 +671,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="178" formatCode="m/d;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -710,7 +716,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -749,7 +755,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="178" formatCode="m/d;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -794,7 +800,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -833,7 +839,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -901,7 +907,7 @@
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -976,7 +982,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="タスク リスト" pivot="0" count="4">
+    <tableStyle name="タスク リスト" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="totalRow" dxfId="13"/>
@@ -995,19 +1001,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="タスク_3" displayName="タスク_3" ref="C1:J43" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="C1:J43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="タスク_3" displayName="タスク_3" ref="C1:J43" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="C1:J43" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
-    <tableColumn id="7" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
-    <tableColumn id="2" name="開始_x000a_予定" dataDxfId="5" dataCellStyle="日付"/>
-    <tableColumn id="8" name="完了_x000a_予定" dataDxfId="4" dataCellStyle="日付"/>
-    <tableColumn id="3" name="完了_x000a_日" dataDxfId="3" dataCellStyle="日付"/>
-    <tableColumn id="4" name="達成率" dataDxfId="2" dataCellStyle="パーセント"/>
-    <tableColumn id="5" name="完了" dataDxfId="1" dataCellStyle="完了">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="開始_x000a_予定" dataDxfId="5" dataCellStyle="日付"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="完了_x000a_予定" dataDxfId="4" dataCellStyle="日付"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="完了_x000a_日" dataDxfId="3" dataCellStyle="日付"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="達成率" dataDxfId="2" dataCellStyle="パーセント"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="完了" dataDxfId="1" dataCellStyle="完了">
       <calculatedColumnFormula>--(タスク_3[[#This Row],[達成率]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="メモ" dataDxfId="0" dataCellStyle="表のテキスト"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="メモ" dataDxfId="0" dataCellStyle="表のテキスト"/>
   </tableColumns>
   <tableStyleInfo name="タスク リスト" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1208,14 +1214,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -1223,27 +1229,27 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="13" customWidth="1"/>
     <col min="9" max="9" width="3" style="5" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.5703125" style="5"/>
+    <col min="10" max="10" width="28.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.44140625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1273,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1294,7 +1300,7 @@
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I2" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1302,7 +1308,7 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1323,7 +1329,7 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I3" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1331,7 +1337,7 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1352,7 +1358,7 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I4" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1360,7 +1366,7 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1381,7 +1387,7 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I5" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1389,7 +1395,7 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1410,7 +1416,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I6" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1418,7 +1424,7 @@
       </c>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1439,7 +1445,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I7" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1447,7 +1453,7 @@
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1468,7 +1474,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I8" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1476,7 +1482,7 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1497,7 +1503,7 @@
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I9" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1505,7 +1511,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1526,7 +1532,7 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I10" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1534,7 +1540,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1555,7 +1561,7 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I11" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1563,7 +1569,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1584,7 +1590,7 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I12" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1592,7 +1598,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1613,7 +1619,7 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I13" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1621,7 +1627,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1642,7 +1648,7 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I14" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1650,7 +1656,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1671,7 +1677,7 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I15" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1679,7 +1685,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1700,7 +1706,7 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I16" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1708,7 +1714,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1729,7 +1735,7 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I17" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1737,7 +1743,7 @@
       </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1758,7 +1764,7 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I18" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1766,7 +1772,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1787,12 +1793,12 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1813,12 +1819,12 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1839,12 +1845,12 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1865,12 +1871,12 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1891,12 +1897,12 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1917,12 +1923,12 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1936,7 +1942,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1950,7 +1956,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1964,7 +1970,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1978,7 +1984,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1992,7 +1998,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2006,7 +2012,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2020,7 +2026,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2034,7 +2040,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2048,7 +2054,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2062,7 +2068,7 @@
       <c r="I34" s="11"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2076,7 +2082,7 @@
       <c r="I35" s="11"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2090,7 +2096,7 @@
       <c r="I36" s="11"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2104,7 +2110,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2118,7 +2124,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2132,7 +2138,7 @@
       <c r="I39" s="11"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2149,7 +2155,7 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2166,7 +2172,7 @@
       </c>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2183,7 +2189,7 @@
       </c>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2200,7 +2206,7 @@
       </c>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2214,7 +2220,7 @@
       <c r="I44" s="11"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2228,7 +2234,7 @@
       <c r="I45" s="11"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2242,7 +2248,7 @@
       <c r="I46" s="11"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2256,7 +2262,7 @@
       <c r="I47" s="11"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2270,7 +2276,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2284,7 +2290,7 @@
       <c r="I49" s="11"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2298,7 +2304,7 @@
       <c r="I50" s="11"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2330,13 +2336,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="タスク表の見出しは [完了] です。タスク完了時に自動的に更新されるアイコン インジケーターです。この列の空白セルは進行中のタスクを示します" sqref="I1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H51">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="タスク表の見出しは [完了] です。タスク完了時に自動的に更新されるアイコン インジケーターです。この列の空白セルは進行中のタスクを示します" sqref="I1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H51" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/スケジュール管理_Sylph.xlsx
+++ b/スケジュール管理_Sylph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\Sylph Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE1F56F-7FEE-4B16-A6AD-6077E1BA01C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7A2F6A-9AC7-4AF9-8E18-EB12DB8F5C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
@@ -1229,10 +1229,10 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="8"/>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="8"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="8"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="8"/>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="8"/>

--- a/スケジュール管理_Sylph.xlsx
+++ b/スケジュール管理_Sylph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a503a00dd146cc3/文档/GitHub/sleepyProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7A2F6A-9AC7-4AF9-8E18-EB12DB8F5C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3F7A2F6A-9AC7-4AF9-8E18-EB12DB8F5C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86B2B33F-433F-4361-96DB-F356C52D029B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$51</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -1232,7 +1230,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1329,11 +1327,11 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="8"/>
     </row>
@@ -1358,11 +1356,11 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I4" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="8"/>
     </row>
@@ -1387,11 +1385,11 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I5" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="8"/>
     </row>
@@ -1416,11 +1414,11 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I6" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="8"/>
     </row>
@@ -1445,11 +1443,11 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I7" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="8"/>
     </row>
@@ -1474,11 +1472,11 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I8" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="8"/>
     </row>
@@ -1503,11 +1501,11 @@
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I9" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="8"/>
     </row>
@@ -1532,11 +1530,11 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I10" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="8"/>
     </row>
@@ -1561,11 +1559,11 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I11" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="8"/>
     </row>
@@ -1590,11 +1588,11 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I12" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="8"/>
     </row>
@@ -1619,11 +1617,11 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I13" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="8"/>
     </row>
@@ -1648,11 +1646,11 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I14" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="8"/>
     </row>
@@ -1677,11 +1675,11 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I15" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="8"/>
     </row>
@@ -1706,11 +1704,11 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I16" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="8"/>
     </row>
@@ -1735,11 +1733,11 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I17" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="8"/>
     </row>
@@ -1764,11 +1762,11 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I18" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="8"/>
     </row>
@@ -1793,7 +1791,7 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="8"/>
@@ -1819,7 +1817,7 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="8"/>
@@ -1845,7 +1843,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="8"/>
@@ -1871,7 +1869,7 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="8"/>
@@ -1897,7 +1895,7 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
@@ -1923,7 +1921,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="8"/>

--- a/スケジュール管理_Sylph.xlsx
+++ b/スケジュール管理_Sylph.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7A2F6A-9AC7-4AF9-8E18-EB12DB8F5C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
@@ -18,12 +12,12 @@
   <definedNames>
     <definedName name="ColumnTitle1" localSheetId="0">タスク_3[[#Headers],[タスク名]]</definedName>
     <definedName name="ColumnTitle1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>メモ</t>
   </si>
@@ -311,17 +305,131 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>DB作成</t>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>製造</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験選択画面</t>
+    <rPh sb="0" eb="6">
+      <t>シケンセンタクガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験画面</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果画面</t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>結合テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>問題作成</t>
+    <rPh sb="0" eb="4">
+      <t>モンダイサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>斎藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>佐竹</t>
+    <rPh sb="0" eb="2">
+      <t>サタケ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>李</t>
+    <rPh sb="0" eb="1">
+      <t>リ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>朴</t>
+    <rPh sb="0" eb="1">
+      <t>パク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>吉川</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシカワ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,12 +639,12 @@
   <cellStyles count="8">
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="パーセント" xfId="4" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="完了" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="完了" xfId="3"/>
     <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="日付" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="日付" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="標準 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="表のテキスト" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 2" xfId="7"/>
+    <cellStyle name="表のテキスト" xfId="6"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -556,7 +664,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -593,7 +701,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="177" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -632,7 +740,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -671,7 +779,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="178" formatCode="m/d;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -716,7 +824,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -755,7 +863,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="178" formatCode="m/d;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -800,7 +908,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -839,7 +947,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -907,7 +1015,7 @@
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -982,7 +1090,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="タスク リスト" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="タスク リスト" pivot="0" count="4">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="totalRow" dxfId="13"/>
@@ -1001,19 +1109,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="タスク_3" displayName="タスク_3" ref="C1:J43" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="C1:J43" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="タスク_3" displayName="タスク_3" ref="C1:J44" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="C1:J44"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="開始_x000a_予定" dataDxfId="5" dataCellStyle="日付"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="完了_x000a_予定" dataDxfId="4" dataCellStyle="日付"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="完了_x000a_日" dataDxfId="3" dataCellStyle="日付"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="達成率" dataDxfId="2" dataCellStyle="パーセント"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="完了" dataDxfId="1" dataCellStyle="完了">
+    <tableColumn id="1" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
+    <tableColumn id="7" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
+    <tableColumn id="2" name="開始_x000a_予定" dataDxfId="5" dataCellStyle="日付"/>
+    <tableColumn id="8" name="完了_x000a_予定" dataDxfId="4" dataCellStyle="日付"/>
+    <tableColumn id="3" name="完了_x000a_日" dataDxfId="3" dataCellStyle="日付"/>
+    <tableColumn id="4" name="達成率" dataDxfId="2" dataCellStyle="パーセント"/>
+    <tableColumn id="5" name="完了" dataDxfId="1" dataCellStyle="完了">
       <calculatedColumnFormula>--(タスク_3[[#This Row],[達成率]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="メモ" dataDxfId="0" dataCellStyle="表のテキスト"/>
+    <tableColumn id="6" name="メモ" dataDxfId="0" dataCellStyle="表のテキスト"/>
   </tableColumns>
   <tableStyleInfo name="タスク リスト" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1214,42 +1322,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="13" customWidth="1"/>
     <col min="9" max="9" width="3" style="5" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.44140625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.5546875" style="5"/>
+    <col min="10" max="10" width="28.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1279,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1308,7 +1416,7 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1337,7 +1445,7 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1366,7 +1474,7 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1395,7 +1503,7 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1424,7 +1532,7 @@
       </c>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1453,7 +1561,7 @@
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1482,7 +1590,7 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1511,7 +1619,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1540,7 +1648,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1569,7 +1677,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1598,7 +1706,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1627,7 +1735,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1656,7 +1764,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1685,7 +1793,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1714,7 +1822,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1743,7 +1851,7 @@
       </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1772,7 +1880,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1798,7 +1906,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1824,7 +1932,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1850,7 +1958,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1876,7 +1984,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1902,7 +2010,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1928,7 +2036,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1942,135 +2050,203 @@
       <c r="I25" s="11"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
       <c r="I26" s="11"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="8"/>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
       <c r="I27" s="11"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
       <c r="I28" s="11"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
       <c r="I29" s="11"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
       <c r="I30" s="11"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
       <c r="I31" s="11"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
       <c r="I32" s="11"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
       <c r="I33" s="11"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D34" s="8"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
       <c r="I34" s="11"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2082,9 +2258,9 @@
       <c r="I35" s="11"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2096,9 +2272,9 @@
       <c r="I36" s="11"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2110,9 +2286,9 @@
       <c r="I37" s="11"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2124,12 +2300,12 @@
       <c r="I38" s="11"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="6">
-        <v>38</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="8"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -2138,9 +2314,9 @@
       <c r="I39" s="11"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="8"/>
@@ -2149,15 +2325,12 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I40" s="11"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="8"/>
@@ -2172,9 +2345,9 @@
       </c>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="8"/>
@@ -2189,9 +2362,9 @@
       </c>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="8"/>
@@ -2206,23 +2379,26 @@
       </c>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="11"/>
+      <c r="I44" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2234,9 +2410,9 @@
       <c r="I45" s="11"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2248,9 +2424,9 @@
       <c r="I46" s="11"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2262,9 +2438,9 @@
       <c r="I47" s="11"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2276,9 +2452,9 @@
       <c r="I48" s="11"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2290,9 +2466,9 @@
       <c r="I49" s="11"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2304,9 +2480,9 @@
       <c r="I50" s="11"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2318,10 +2494,24 @@
       <c r="I51" s="11"/>
       <c r="J51" s="8"/>
     </row>
+    <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="6">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="8"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <phoneticPr fontId="6"/>
-  <conditionalFormatting sqref="H2:H51">
+  <conditionalFormatting sqref="H2:H52">
     <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2336,13 +2526,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="タスク表の見出しは [完了] です。タスク完了時に自動的に更新されるアイコン インジケーターです。この列の空白セルは進行中のタスクを示します" sqref="I1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H51" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="タスク表の見出しは [完了] です。タスク完了時に自動的に更新されるアイコン インジケーターです。この列の空白セルは進行中のタスクを示します" sqref="I1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H52">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2374,7 +2564,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H51</xm:sqref>
+          <xm:sqref>H2:H52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="46" id="{3BD222B5-EE45-4994-9E49-2F7D9A8F7A54}">
@@ -2393,7 +2583,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I2:I51</xm:sqref>
+          <xm:sqref>I2:I52</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/スケジュール管理_Sylph.xlsx
+++ b/スケジュール管理_Sylph.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>メモ</t>
   </si>
@@ -409,6 +409,13 @@
     <t>朴</t>
     <rPh sb="0" eb="1">
       <t>パク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>吉川</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシカワ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1322,7 +1329,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1340,7 +1347,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2060,12 +2067,18 @@
       <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="7">
+        <v>44697</v>
+      </c>
+      <c r="F26" s="7">
+        <v>44701</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="8"/>
@@ -2083,11 +2096,15 @@
       <c r="D27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="7">
+        <v>44697</v>
+      </c>
+      <c r="F27" s="7">
+        <v>44701</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="8"/>
@@ -2105,8 +2122,12 @@
       <c r="D28" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F28" s="7">
+        <v>44701</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="9">
         <v>0</v>
@@ -2127,8 +2148,12 @@
       <c r="D29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F29" s="7">
+        <v>44701</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="9">
         <v>0</v>
@@ -2149,8 +2174,12 @@
       <c r="D30" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F30" s="7">
+        <v>44701</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="9">
         <v>0</v>
@@ -2171,8 +2200,12 @@
       <c r="D31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F31" s="7">
+        <v>44701</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="9">
         <v>0</v>
@@ -2193,8 +2226,12 @@
       <c r="D32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F32" s="7">
+        <v>44701</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="9">
         <v>0</v>
@@ -2215,8 +2252,12 @@
       <c r="D33" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F33" s="7">
+        <v>44701</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="9">
         <v>0</v>
@@ -2234,9 +2275,15 @@
       <c r="C34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="7">
+        <v>44700</v>
+      </c>
+      <c r="F34" s="7">
+        <v>44701</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="9">
         <v>0</v>

--- a/スケジュール管理_Sylph.xlsx
+++ b/スケジュール管理_Sylph.xlsx
@@ -1329,7 +1329,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1344,10 +1344,10 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1417,10 +1417,7 @@
       <c r="H2" s="9">
         <v>0.9</v>
       </c>
-      <c r="I2" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I2" s="11"/>
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1444,12 +1441,9 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I3" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" s="11"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1473,12 +1467,9 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I4" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" s="11"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1502,12 +1493,9 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I5" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1531,12 +1519,9 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I6" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" s="11"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1560,12 +1545,9 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I7" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" s="11"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1589,12 +1571,9 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I8" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" s="11"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1618,12 +1597,9 @@
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I9" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" s="11"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1647,12 +1623,9 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I10" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" s="11"/>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1676,12 +1649,9 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I11" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" s="11"/>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1705,12 +1675,9 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I12" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" s="11"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1734,12 +1701,9 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I13" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" s="11"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1763,12 +1727,9 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I14" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" s="11"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1792,12 +1753,9 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I15" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" s="11"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1821,12 +1779,9 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I16" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" s="11"/>
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1850,12 +1805,9 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I17" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" s="11"/>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1879,12 +1831,9 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="I18" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" s="11"/>
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -2078,7 +2027,7 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="8"/>
@@ -2104,7 +2053,7 @@
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="8"/>

--- a/スケジュール管理_Sylph.xlsx
+++ b/スケジュール管理_Sylph.xlsx
@@ -1329,7 +1329,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1344,10 +1344,10 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="8"/>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="8"/>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="8"/>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="8"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="8"/>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="8"/>

--- a/スケジュール管理_Sylph.xlsx
+++ b/スケジュール管理_Sylph.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Documents\GitHub\sleepyProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4337C97F-F1FD-431E-94A4-8AB2B134818A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
@@ -12,12 +18,12 @@
   <definedNames>
     <definedName name="ColumnTitle1" localSheetId="0">タスク_3[[#Headers],[タスク名]]</definedName>
     <definedName name="ColumnTitle1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$82</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="83">
   <si>
     <t>メモ</t>
   </si>
@@ -320,57 +326,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ログイン画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ユーザ登録画面</t>
-    <rPh sb="3" eb="7">
-      <t>トウロクガメン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>試験選択画面</t>
-    <rPh sb="0" eb="6">
-      <t>シケンセンタクガメン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>試験画面</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>試験結果一覧画面</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>試験結果画面</t>
-    <rPh sb="0" eb="4">
-      <t>シケンケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
@@ -423,6 +378,312 @@
     <t>吉川</t>
     <rPh sb="0" eb="2">
       <t>ヨシカワ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログイン画面(Controller)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログイン画面(Service)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログイン画面(Form)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログイン画面(Entity)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログイン画面(Repository)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面(Controller)</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面(Service)</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面(Form)</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面(Entity)</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面(Repository)</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログイン画面(html)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面(html)</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験選択画面(Controller)</t>
+    <rPh sb="0" eb="6">
+      <t>シケンセンタクガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験選択画面(Service)</t>
+    <rPh sb="0" eb="6">
+      <t>シケンセンタクガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験選択画面(Form)</t>
+    <rPh sb="0" eb="6">
+      <t>シケンセンタクガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験選択画面(Entity)</t>
+    <rPh sb="0" eb="6">
+      <t>シケンセンタクガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験選択画面(Repository)</t>
+    <rPh sb="0" eb="6">
+      <t>シケンセンタクガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験選択画面(html)</t>
+    <rPh sb="0" eb="6">
+      <t>シケンセンタクガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果一覧画面(Controller)</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果一覧画面(Service)</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果一覧画面(Form)</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果一覧画面(Entity)</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果一覧画面(Repository)</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果一覧画面(html)</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験画面(Controller)</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験画面(Service)</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験画面(Form)</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験画面(Entity)</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験画面(Repository)</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験画面(html)</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果画面(Controller)</t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果画面(Service)</t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果画面(Form)</t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果画面(Entity)</t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果画面(Repository)</t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果画面(html)</t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -430,13 +691,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,12 +907,12 @@
   <cellStyles count="8">
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="パーセント" xfId="4" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="完了" xfId="3"/>
+    <cellStyle name="完了" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="日付" xfId="5"/>
+    <cellStyle name="日付" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="標準 2" xfId="7"/>
-    <cellStyle name="表のテキスト" xfId="6"/>
+    <cellStyle name="標準 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="表のテキスト" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -671,7 +932,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -708,7 +969,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="177" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -747,7 +1008,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -786,7 +1047,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="178" formatCode="m/d;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -831,7 +1092,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -870,7 +1131,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="178" formatCode="m/d;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -915,7 +1176,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -954,7 +1215,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1022,7 +1283,7 @@
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1097,7 +1358,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="タスク リスト" pivot="0" count="4">
+    <tableStyle name="タスク リスト" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="totalRow" dxfId="13"/>
@@ -1116,19 +1377,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="タスク_3" displayName="タスク_3" ref="C1:J44" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="C1:J44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="タスク_3" displayName="タスク_3" ref="C1:J74" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="C1:J74" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
-    <tableColumn id="7" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
-    <tableColumn id="2" name="開始_x000a_予定" dataDxfId="5" dataCellStyle="日付"/>
-    <tableColumn id="8" name="完了_x000a_予定" dataDxfId="4" dataCellStyle="日付"/>
-    <tableColumn id="3" name="完了_x000a_日" dataDxfId="3" dataCellStyle="日付"/>
-    <tableColumn id="4" name="達成率" dataDxfId="2" dataCellStyle="パーセント"/>
-    <tableColumn id="5" name="完了" dataDxfId="1" dataCellStyle="完了">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="開始_x000a_予定" dataDxfId="5" dataCellStyle="日付"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="完了_x000a_予定" dataDxfId="4" dataCellStyle="日付"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="完了_x000a_日" dataDxfId="3" dataCellStyle="日付"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="達成率" dataDxfId="2" dataCellStyle="パーセント"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="完了" dataDxfId="1" dataCellStyle="完了">
       <calculatedColumnFormula>--(タスク_3[[#This Row],[達成率]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="メモ" dataDxfId="0" dataCellStyle="表のテキスト"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="メモ" dataDxfId="0" dataCellStyle="表のテキスト"/>
   </tableColumns>
   <tableStyleInfo name="タスク リスト" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1329,42 +1590,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="13" customWidth="1"/>
     <col min="9" max="9" width="3" style="5" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.5703125" style="5"/>
+    <col min="10" max="10" width="28.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.44140625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1394,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1420,7 +1681,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1446,7 +1707,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1472,7 +1733,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1498,7 +1759,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1524,7 +1785,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1550,7 +1811,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1576,7 +1837,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1602,7 +1863,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1628,7 +1889,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1654,7 +1915,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1680,7 +1941,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1706,7 +1967,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1732,7 +1993,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1758,7 +2019,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1784,7 +2045,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1810,7 +2071,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1836,7 +2097,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1862,7 +2123,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1888,7 +2149,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1914,7 +2175,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1940,7 +2201,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1966,7 +2227,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1992,7 +2253,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2006,7 +2267,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2017,7 +2278,7 @@
         <v>38</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E26" s="7">
         <v>44697</v>
@@ -2032,18 +2293,18 @@
       <c r="I26" s="11"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E27" s="7">
         <v>44697</v>
@@ -2058,18 +2319,18 @@
       <c r="I27" s="11"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E28" s="7">
         <v>44698</v>
@@ -2079,23 +2340,23 @@
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E29" s="7">
         <v>44698</v>
@@ -2105,23 +2366,23 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E30" s="7">
         <v>44698</v>
@@ -2131,23 +2392,23 @@
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E31" s="7">
         <v>44698</v>
@@ -2157,23 +2418,23 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E32" s="7">
         <v>44698</v>
@@ -2183,23 +2444,23 @@
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E33" s="7">
         <v>44698</v>
@@ -2209,26 +2470,26 @@
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E34" s="7">
-        <v>44700</v>
+        <v>44698</v>
       </c>
       <c r="F34" s="7">
         <v>44701</v>
@@ -2240,274 +2501,1054 @@
       <c r="I34" s="11"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F35" s="7">
+        <v>44701</v>
+      </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="9">
+        <v>0.7</v>
+      </c>
       <c r="I35" s="11"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F36" s="7">
+        <v>44701</v>
+      </c>
       <c r="G36" s="7"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="9">
+        <v>0.7</v>
+      </c>
       <c r="I36" s="11"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="E37" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F37" s="7">
+        <v>44701</v>
+      </c>
       <c r="G37" s="7"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="9">
+        <v>0.7</v>
+      </c>
       <c r="I37" s="11"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F38" s="7">
+        <v>44701</v>
+      </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="9">
+        <v>0.7</v>
+      </c>
       <c r="I38" s="11"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F39" s="7">
+        <v>44701</v>
+      </c>
       <c r="G39" s="7"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="9">
+        <v>0.7</v>
+      </c>
       <c r="I39" s="11"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
-        <v>38</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F40" s="7">
+        <v>44701</v>
+      </c>
       <c r="G40" s="7"/>
-      <c r="H40" s="9"/>
+      <c r="H40" s="9">
+        <v>0.6</v>
+      </c>
       <c r="I40" s="11"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
+        <v>28</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F41" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>28</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F42" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F43" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>28</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F44" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>28</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F45" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="11"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>29</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F46" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="I46" s="11"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>29</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F47" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>29</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F48" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>29</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F49" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>29</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F50" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>29</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F51" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>30</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F52" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>30</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F53" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>30</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F54" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>30</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F55" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I55" s="11"/>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>30</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F56" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I56" s="11"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>30</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F57" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="11"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>31</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F58" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>31</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F59" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I59" s="11"/>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>31</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F60" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I60" s="11"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>31</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F61" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I61" s="11"/>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>31</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F62" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I62" s="11"/>
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>31</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F63" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="9">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11"/>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>32</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="11">
+      <c r="C64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="7">
+        <v>44700</v>
+      </c>
+      <c r="F64" s="7">
+        <v>44701</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="9">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>33</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>34</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>35</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>36</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>37</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>38</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="8"/>
+    </row>
+    <row r="71" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>39</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="6">
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
         <v>40</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="11">
+      <c r="B72" s="10"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="6">
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="11">
+      <c r="B73" s="10"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="6">
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
         <v>42</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="11">
+      <c r="B74" s="10"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="6">
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="6">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
         <v>44</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="6">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
         <v>45</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="6">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
         <v>46</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="6">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
         <v>47</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="6">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="8"/>
+    </row>
+    <row r="80" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
         <v>48</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="6">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="8"/>
+    </row>
+    <row r="81" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
         <v>49</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="6">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="8"/>
+    </row>
+    <row r="82" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
         <v>50</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="8"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <phoneticPr fontId="6"/>
-  <conditionalFormatting sqref="H2:H52">
+  <conditionalFormatting sqref="H2:H82">
     <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2522,13 +3563,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="タスク表の見出しは [完了] です。タスク完了時に自動的に更新されるアイコン インジケーターです。この列の空白セルは進行中のタスクを示します" sqref="I1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H52">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="タスク表の見出しは [完了] です。タスク完了時に自動的に更新されるアイコン インジケーターです。この列の空白セルは進行中のタスクを示します" sqref="I1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H82" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2560,7 +3601,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H52</xm:sqref>
+          <xm:sqref>H2:H82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="46" id="{3BD222B5-EE45-4994-9E49-2F7D9A8F7A54}">
@@ -2579,7 +3620,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I2:I52</xm:sqref>
+          <xm:sqref>I2:I82</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/スケジュール管理_Sylph.xlsx
+++ b/スケジュール管理_Sylph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Documents\GitHub\sleepyProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4337C97F-F1FD-431E-94A4-8AB2B134818A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB67E017-3C8F-40E6-9361-F480E9060CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1605,10 +1605,10 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="8"/>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="8"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="8"/>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="8"/>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="8"/>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="8"/>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="8"/>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="8"/>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="8"/>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="8"/>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="9">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="8"/>

--- a/スケジュール管理_Sylph.xlsx
+++ b/スケジュール管理_Sylph.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Documents\GitHub\sleepyProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB67E017-3C8F-40E6-9361-F480E9060CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C6EE3-0CC8-44B5-ACE7-A16D8E636EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1605,10 +1605,10 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="9">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="8"/>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="8"/>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="8"/>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="8"/>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="9">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="8"/>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="9">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="I63" s="11"/>
       <c r="J63" s="8"/>

--- a/スケジュール管理_Sylph.xlsx
+++ b/スケジュール管理_Sylph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a503a00dd146cc3/文档/GitHub/sleepyProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C6EE3-0CC8-44B5-ACE7-A16D8E636EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{BC4C6EE3-0CC8-44B5-ACE7-A16D8E636EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5F64D0E-99FB-49BD-B479-C905B454C7B0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$82</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -326,13 +324,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>結合テスト</t>
-    <rPh sb="0" eb="2">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>問題作成</t>
     <rPh sb="0" eb="4">
       <t>モンダイサクセイ</t>
@@ -684,6 +675,13 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>結合</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1605,10 +1603,10 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
+      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2278,7 +2276,7 @@
         <v>38</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="7">
         <v>44697</v>
@@ -2288,7 +2286,7 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="8"/>
@@ -2298,13 +2296,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="7">
         <v>44697</v>
@@ -2314,7 +2312,7 @@
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="8"/>
@@ -2324,13 +2322,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="7">
         <v>44698</v>
@@ -2340,7 +2338,7 @@
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="8"/>
@@ -2350,7 +2348,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>38</v>
@@ -2366,7 +2364,7 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="8"/>
@@ -2376,7 +2374,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>38</v>
@@ -2392,7 +2390,7 @@
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="8"/>
@@ -2402,7 +2400,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
@@ -2418,7 +2416,7 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="8"/>
@@ -2428,7 +2426,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>38</v>
@@ -2444,7 +2442,7 @@
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="8"/>
@@ -2454,7 +2452,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>38</v>
@@ -2470,7 +2468,7 @@
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="8"/>
@@ -2480,13 +2478,13 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" s="7">
         <v>44698</v>
@@ -2496,7 +2494,7 @@
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="8"/>
@@ -2506,7 +2504,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>38</v>
@@ -2522,7 +2520,7 @@
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="8"/>
@@ -2532,7 +2530,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>38</v>
@@ -2548,7 +2546,7 @@
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="8"/>
@@ -2558,7 +2556,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>38</v>
@@ -2574,7 +2572,7 @@
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="8"/>
@@ -2584,7 +2582,7 @@
         <v>27</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>38</v>
@@ -2600,7 +2598,7 @@
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="8"/>
@@ -2610,7 +2608,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>38</v>
@@ -2626,7 +2624,7 @@
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="8"/>
@@ -2636,13 +2634,13 @@
         <v>28</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" s="7">
         <v>44698</v>
@@ -2652,7 +2650,7 @@
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="8"/>
@@ -2662,7 +2660,7 @@
         <v>28</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>38</v>
@@ -2678,7 +2676,7 @@
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="8"/>
@@ -2688,7 +2686,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>38</v>
@@ -2704,7 +2702,7 @@
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="8"/>
@@ -2714,7 +2712,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>38</v>
@@ -2730,7 +2728,7 @@
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="8"/>
@@ -2740,7 +2738,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>38</v>
@@ -2756,7 +2754,7 @@
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="8"/>
@@ -2766,7 +2764,7 @@
         <v>28</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>38</v>
@@ -2782,7 +2780,7 @@
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="9">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="8"/>
@@ -2792,13 +2790,13 @@
         <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E46" s="7">
         <v>44698</v>
@@ -2808,7 +2806,7 @@
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="8"/>
@@ -2818,7 +2816,7 @@
         <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>38</v>
@@ -2834,7 +2832,7 @@
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="8"/>
@@ -2844,7 +2842,7 @@
         <v>29</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>38</v>
@@ -2860,7 +2858,7 @@
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="8"/>
@@ -2870,7 +2868,7 @@
         <v>29</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>38</v>
@@ -2886,7 +2884,7 @@
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="8"/>
@@ -2896,7 +2894,7 @@
         <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>38</v>
@@ -2912,7 +2910,7 @@
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="8"/>
@@ -2922,7 +2920,7 @@
         <v>29</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>38</v>
@@ -2938,7 +2936,7 @@
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="8"/>
@@ -2948,13 +2946,13 @@
         <v>30</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E52" s="7">
         <v>44698</v>
@@ -2964,7 +2962,7 @@
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="8"/>
@@ -2974,7 +2972,7 @@
         <v>30</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>38</v>
@@ -2990,7 +2988,7 @@
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="8"/>
@@ -3000,7 +2998,7 @@
         <v>30</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>38</v>
@@ -3016,7 +3014,7 @@
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="8"/>
@@ -3026,7 +3024,7 @@
         <v>30</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>38</v>
@@ -3042,7 +3040,7 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="8"/>
@@ -3052,7 +3050,7 @@
         <v>30</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>38</v>
@@ -3068,7 +3066,7 @@
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="8"/>
@@ -3078,7 +3076,7 @@
         <v>30</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>38</v>
@@ -3094,7 +3092,7 @@
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="8"/>
@@ -3104,13 +3102,13 @@
         <v>31</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E58" s="7">
         <v>44698</v>
@@ -3120,7 +3118,7 @@
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="8"/>
@@ -3130,7 +3128,7 @@
         <v>31</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>38</v>
@@ -3146,7 +3144,7 @@
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="8"/>
@@ -3156,7 +3154,7 @@
         <v>31</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>38</v>
@@ -3172,7 +3170,7 @@
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="8"/>
@@ -3182,7 +3180,7 @@
         <v>31</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>38</v>
@@ -3198,7 +3196,7 @@
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="8"/>
@@ -3208,7 +3206,7 @@
         <v>31</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>38</v>
@@ -3224,7 +3222,7 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="8"/>
@@ -3234,7 +3232,7 @@
         <v>31</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>38</v>
@@ -3250,7 +3248,7 @@
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="9">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="I63" s="11"/>
       <c r="J63" s="8"/>
@@ -3260,13 +3258,13 @@
         <v>32</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E64" s="7">
         <v>44700</v>
@@ -3276,7 +3274,7 @@
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="8"/>

--- a/スケジュール管理_Sylph.xlsx
+++ b/スケジュール管理_Sylph.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a503a00dd146cc3/文档/GitHub/sleepyProject/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{BC4C6EE3-0CC8-44B5-ACE7-A16D8E636EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5F64D0E-99FB-49BD-B479-C905B454C7B0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
@@ -21,9 +15,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$82</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="101">
   <si>
     <t>メモ</t>
   </si>
@@ -685,17 +679,194 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>試験</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログイン画面 (単体)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログイン画面 (結合)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面 (単体)</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面 (結合)</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験選択画面 (単体)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験選択画面 (結合)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験画面 (単体)</t>
+    <rPh sb="0" eb="4">
+      <t>シケンガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験画面 (結合)</t>
+    <rPh sb="6" eb="8">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果画面 (単体)</t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果画面 (結合)</t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果一覧画面 (単体)</t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験結果一覧画面 (結合)</t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>斎藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>佐竹</t>
+    <rPh sb="0" eb="2">
+      <t>サタケ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>朴</t>
+    <rPh sb="0" eb="1">
+      <t>パク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>吉川</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシカワ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>李</t>
+    <rPh sb="0" eb="1">
+      <t>リ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,7 +964,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -817,6 +988,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -852,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -901,16 +1085,28 @@
     <xf numFmtId="178" fontId="8" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="パーセント" xfId="4" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="完了" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="完了" xfId="3"/>
     <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="日付" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="日付" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="標準 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="表のテキスト" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 2" xfId="7"/>
+    <cellStyle name="表のテキスト" xfId="6"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -930,7 +1126,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -967,7 +1163,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="177" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1006,7 +1202,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1045,7 +1241,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="178" formatCode="m/d;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1090,7 +1286,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1129,7 +1325,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="178" formatCode="m/d;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1174,7 +1370,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1213,7 +1409,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1281,7 +1477,7 @@
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1356,7 +1552,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="タスク リスト" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="タスク リスト" pivot="0" count="4">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="totalRow" dxfId="13"/>
@@ -1375,19 +1571,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="タスク_3" displayName="タスク_3" ref="C1:J74" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="C1:J74" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="タスク_3" displayName="タスク_3" ref="C1:J77" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="C1:J77"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="開始_x000a_予定" dataDxfId="5" dataCellStyle="日付"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="完了_x000a_予定" dataDxfId="4" dataCellStyle="日付"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="完了_x000a_日" dataDxfId="3" dataCellStyle="日付"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="達成率" dataDxfId="2" dataCellStyle="パーセント"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="完了" dataDxfId="1" dataCellStyle="完了">
+    <tableColumn id="1" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
+    <tableColumn id="7" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
+    <tableColumn id="2" name="開始_x000a_予定" dataDxfId="5" dataCellStyle="日付"/>
+    <tableColumn id="8" name="完了_x000a_予定" dataDxfId="4" dataCellStyle="日付"/>
+    <tableColumn id="3" name="完了_x000a_日" dataDxfId="3" dataCellStyle="日付"/>
+    <tableColumn id="4" name="達成率" dataDxfId="2" dataCellStyle="パーセント"/>
+    <tableColumn id="5" name="完了" dataDxfId="1" dataCellStyle="完了">
       <calculatedColumnFormula>--(タスク_3[[#This Row],[達成率]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="メモ" dataDxfId="0" dataCellStyle="表のテキスト"/>
+    <tableColumn id="6" name="メモ" dataDxfId="0" dataCellStyle="表のテキスト"/>
   </tableColumns>
   <tableStyleInfo name="タスク リスト" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1588,42 +1784,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
+      <selection pane="bottomRight" activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="13" customWidth="1"/>
     <col min="9" max="9" width="3" style="5" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.44140625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.5546875" style="5"/>
+    <col min="10" max="10" width="28.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1653,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1672,14 +1868,16 @@
       <c r="F2" s="7">
         <v>44328</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7">
+        <v>44694</v>
+      </c>
       <c r="H2" s="9">
         <v>1</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1698,14 +1896,16 @@
       <c r="F3" s="7">
         <v>44694</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7">
+        <v>44694</v>
+      </c>
       <c r="H3" s="9">
         <v>1</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1724,14 +1924,16 @@
       <c r="F4" s="7">
         <v>44694</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>44694</v>
+      </c>
       <c r="H4" s="9">
         <v>1</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1750,14 +1952,16 @@
       <c r="F5" s="7">
         <v>44694</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>44694</v>
+      </c>
       <c r="H5" s="9">
         <v>1</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1776,14 +1980,16 @@
       <c r="F6" s="7">
         <v>44694</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>44694</v>
+      </c>
       <c r="H6" s="9">
         <v>1</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1802,14 +2008,16 @@
       <c r="F7" s="7">
         <v>44694</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>44694</v>
+      </c>
       <c r="H7" s="9">
         <v>1</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1828,14 +2036,16 @@
       <c r="F8" s="7">
         <v>44694</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>44694</v>
+      </c>
       <c r="H8" s="9">
         <v>1</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1854,14 +2064,16 @@
       <c r="F9" s="7">
         <v>44694</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>44694</v>
+      </c>
       <c r="H9" s="9">
         <v>1</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1880,14 +2092,16 @@
       <c r="F10" s="7">
         <v>44694</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>44694</v>
+      </c>
       <c r="H10" s="9">
         <v>1</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1906,14 +2120,16 @@
       <c r="F11" s="7">
         <v>44694</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>44694</v>
+      </c>
       <c r="H11" s="9">
         <v>1</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1932,14 +2148,16 @@
       <c r="F12" s="7">
         <v>44694</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>44694</v>
+      </c>
       <c r="H12" s="9">
         <v>1</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1958,14 +2176,16 @@
       <c r="F13" s="7">
         <v>44694</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>44694</v>
+      </c>
       <c r="H13" s="9">
         <v>1</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1984,14 +2204,16 @@
       <c r="F14" s="7">
         <v>44694</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>44694</v>
+      </c>
       <c r="H14" s="9">
         <v>1</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2010,14 +2232,16 @@
       <c r="F15" s="7">
         <v>44694</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>44694</v>
+      </c>
       <c r="H15" s="9">
         <v>1</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2036,14 +2260,16 @@
       <c r="F16" s="7">
         <v>44694</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>44694</v>
+      </c>
       <c r="H16" s="9">
         <v>1</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2062,14 +2288,16 @@
       <c r="F17" s="7">
         <v>44694</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>44694</v>
+      </c>
       <c r="H17" s="9">
         <v>1</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2088,14 +2316,16 @@
       <c r="F18" s="7">
         <v>44694</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>44694</v>
+      </c>
       <c r="H18" s="9">
         <v>1</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2114,14 +2344,16 @@
       <c r="F19" s="7">
         <v>44694</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>44694</v>
+      </c>
       <c r="H19" s="9">
         <v>1</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2140,14 +2372,16 @@
       <c r="F20" s="7">
         <v>44694</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>44694</v>
+      </c>
       <c r="H20" s="9">
         <v>1</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2166,14 +2400,16 @@
       <c r="F21" s="7">
         <v>44694</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>44694</v>
+      </c>
       <c r="H21" s="9">
         <v>1</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2192,14 +2428,16 @@
       <c r="F22" s="7">
         <v>44694</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>44694</v>
+      </c>
       <c r="H22" s="9">
         <v>1</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2218,14 +2456,16 @@
       <c r="F23" s="7">
         <v>44694</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>44694</v>
+      </c>
       <c r="H23" s="9">
         <v>1</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2244,14 +2484,16 @@
       <c r="F24" s="7">
         <v>44694</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>44694</v>
+      </c>
       <c r="H24" s="9">
         <v>1</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2265,7 +2507,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2284,14 +2526,16 @@
       <c r="F26" s="7">
         <v>44701</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>44698</v>
+      </c>
       <c r="H26" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2310,14 +2554,16 @@
       <c r="F27" s="7">
         <v>44701</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>44698</v>
+      </c>
       <c r="H27" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -2336,14 +2582,16 @@
       <c r="F28" s="7">
         <v>44701</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>44704</v>
+      </c>
       <c r="H28" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -2362,14 +2610,16 @@
       <c r="F29" s="7">
         <v>44701</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>44704</v>
+      </c>
       <c r="H29" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="6">
         <v>26</v>
       </c>
@@ -2388,14 +2638,16 @@
       <c r="F30" s="7">
         <v>44701</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>44704</v>
+      </c>
       <c r="H30" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
@@ -2414,14 +2666,16 @@
       <c r="F31" s="7">
         <v>44701</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>44704</v>
+      </c>
       <c r="H31" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="6">
         <v>26</v>
       </c>
@@ -2440,14 +2694,16 @@
       <c r="F32" s="7">
         <v>44701</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>44704</v>
+      </c>
       <c r="H32" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="6">
         <v>26</v>
       </c>
@@ -2466,14 +2722,16 @@
       <c r="F33" s="7">
         <v>44701</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7">
+        <v>44704</v>
+      </c>
       <c r="H33" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="6">
         <v>27</v>
       </c>
@@ -2492,14 +2750,16 @@
       <c r="F34" s="7">
         <v>44701</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>44704</v>
+      </c>
       <c r="H34" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="6">
         <v>27</v>
       </c>
@@ -2518,14 +2778,16 @@
       <c r="F35" s="7">
         <v>44701</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7">
+        <v>44704</v>
+      </c>
       <c r="H35" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="6">
         <v>27</v>
       </c>
@@ -2544,14 +2806,16 @@
       <c r="F36" s="7">
         <v>44701</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7">
+        <v>44704</v>
+      </c>
       <c r="H36" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="6">
         <v>27</v>
       </c>
@@ -2570,14 +2834,16 @@
       <c r="F37" s="7">
         <v>44701</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7">
+        <v>44704</v>
+      </c>
       <c r="H37" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="6">
         <v>27</v>
       </c>
@@ -2596,14 +2862,16 @@
       <c r="F38" s="7">
         <v>44701</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>44704</v>
+      </c>
       <c r="H38" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="6">
         <v>27</v>
       </c>
@@ -2622,14 +2890,16 @@
       <c r="F39" s="7">
         <v>44701</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>44704</v>
+      </c>
       <c r="H39" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="6">
         <v>28</v>
       </c>
@@ -2648,14 +2918,16 @@
       <c r="F40" s="7">
         <v>44701</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7">
+        <v>44704</v>
+      </c>
       <c r="H40" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="6">
         <v>28</v>
       </c>
@@ -2674,14 +2946,16 @@
       <c r="F41" s="7">
         <v>44701</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7">
+        <v>44704</v>
+      </c>
       <c r="H41" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="6">
         <v>28</v>
       </c>
@@ -2700,14 +2974,16 @@
       <c r="F42" s="7">
         <v>44701</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <v>44704</v>
+      </c>
       <c r="H42" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="6">
         <v>28</v>
       </c>
@@ -2726,14 +3002,16 @@
       <c r="F43" s="7">
         <v>44701</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7">
+        <v>44704</v>
+      </c>
       <c r="H43" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="6">
         <v>28</v>
       </c>
@@ -2752,14 +3030,16 @@
       <c r="F44" s="7">
         <v>44701</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7">
+        <v>44704</v>
+      </c>
       <c r="H44" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="6">
         <v>28</v>
       </c>
@@ -2778,14 +3058,16 @@
       <c r="F45" s="7">
         <v>44701</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <v>44704</v>
+      </c>
       <c r="H45" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="6">
         <v>29</v>
       </c>
@@ -2804,14 +3086,16 @@
       <c r="F46" s="7">
         <v>44701</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7">
+        <v>44704</v>
+      </c>
       <c r="H46" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="6">
         <v>29</v>
       </c>
@@ -2830,14 +3114,16 @@
       <c r="F47" s="7">
         <v>44701</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <v>44704</v>
+      </c>
       <c r="H47" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="6">
         <v>29</v>
       </c>
@@ -2856,14 +3142,16 @@
       <c r="F48" s="7">
         <v>44701</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7">
+        <v>44704</v>
+      </c>
       <c r="H48" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="6">
         <v>29</v>
       </c>
@@ -2882,14 +3170,16 @@
       <c r="F49" s="7">
         <v>44701</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7">
+        <v>44704</v>
+      </c>
       <c r="H49" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="6">
         <v>29</v>
       </c>
@@ -2908,14 +3198,16 @@
       <c r="F50" s="7">
         <v>44701</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7">
+        <v>44704</v>
+      </c>
       <c r="H50" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="6">
         <v>29</v>
       </c>
@@ -2934,14 +3226,16 @@
       <c r="F51" s="7">
         <v>44701</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7">
+        <v>44704</v>
+      </c>
       <c r="H51" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="6">
         <v>30</v>
       </c>
@@ -2960,14 +3254,16 @@
       <c r="F52" s="7">
         <v>44701</v>
       </c>
-      <c r="G52" s="7"/>
+      <c r="G52" s="7">
+        <v>44704</v>
+      </c>
       <c r="H52" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="6">
         <v>30</v>
       </c>
@@ -2986,14 +3282,16 @@
       <c r="F53" s="7">
         <v>44701</v>
       </c>
-      <c r="G53" s="7"/>
+      <c r="G53" s="7">
+        <v>44704</v>
+      </c>
       <c r="H53" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="6">
         <v>30</v>
       </c>
@@ -3012,14 +3310,16 @@
       <c r="F54" s="7">
         <v>44701</v>
       </c>
-      <c r="G54" s="7"/>
+      <c r="G54" s="7">
+        <v>44704</v>
+      </c>
       <c r="H54" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="6">
         <v>30</v>
       </c>
@@ -3038,14 +3338,16 @@
       <c r="F55" s="7">
         <v>44701</v>
       </c>
-      <c r="G55" s="7"/>
+      <c r="G55" s="7">
+        <v>44704</v>
+      </c>
       <c r="H55" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="6">
         <v>30</v>
       </c>
@@ -3064,14 +3366,16 @@
       <c r="F56" s="7">
         <v>44701</v>
       </c>
-      <c r="G56" s="7"/>
+      <c r="G56" s="7">
+        <v>44704</v>
+      </c>
       <c r="H56" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="6">
         <v>30</v>
       </c>
@@ -3090,14 +3394,16 @@
       <c r="F57" s="7">
         <v>44701</v>
       </c>
-      <c r="G57" s="7"/>
+      <c r="G57" s="7">
+        <v>44704</v>
+      </c>
       <c r="H57" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="6">
         <v>31</v>
       </c>
@@ -3116,14 +3422,16 @@
       <c r="F58" s="7">
         <v>44701</v>
       </c>
-      <c r="G58" s="7"/>
+      <c r="G58" s="7">
+        <v>44704</v>
+      </c>
       <c r="H58" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="6">
         <v>31</v>
       </c>
@@ -3142,14 +3450,16 @@
       <c r="F59" s="7">
         <v>44701</v>
       </c>
-      <c r="G59" s="7"/>
+      <c r="G59" s="7">
+        <v>44704</v>
+      </c>
       <c r="H59" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="8"/>
     </row>
-    <row r="60" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="6">
         <v>31</v>
       </c>
@@ -3168,14 +3478,16 @@
       <c r="F60" s="7">
         <v>44701</v>
       </c>
-      <c r="G60" s="7"/>
+      <c r="G60" s="7">
+        <v>44704</v>
+      </c>
       <c r="H60" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="8"/>
     </row>
-    <row r="61" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="6">
         <v>31</v>
       </c>
@@ -3194,14 +3506,16 @@
       <c r="F61" s="7">
         <v>44701</v>
       </c>
-      <c r="G61" s="7"/>
+      <c r="G61" s="7">
+        <v>44704</v>
+      </c>
       <c r="H61" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="8"/>
     </row>
-    <row r="62" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="6">
         <v>31</v>
       </c>
@@ -3220,14 +3534,16 @@
       <c r="F62" s="7">
         <v>44701</v>
       </c>
-      <c r="G62" s="7"/>
+      <c r="G62" s="7">
+        <v>44704</v>
+      </c>
       <c r="H62" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="8"/>
     </row>
-    <row r="63" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="6">
         <v>31</v>
       </c>
@@ -3246,14 +3562,16 @@
       <c r="F63" s="7">
         <v>44701</v>
       </c>
-      <c r="G63" s="7"/>
+      <c r="G63" s="7">
+        <v>44704</v>
+      </c>
       <c r="H63" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I63" s="11"/>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="6">
         <v>32</v>
       </c>
@@ -3272,14 +3590,16 @@
       <c r="F64" s="7">
         <v>44701</v>
       </c>
-      <c r="G64" s="7"/>
+      <c r="G64" s="7">
+        <v>44704</v>
+      </c>
       <c r="H64" s="9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="8"/>
     </row>
-    <row r="65" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="6">
         <v>33</v>
       </c>
@@ -3293,187 +3613,340 @@
       <c r="I65" s="11"/>
       <c r="J65" s="8"/>
     </row>
-    <row r="66" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="6">
         <v>34</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="B66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E66" s="7">
+        <v>44705</v>
+      </c>
+      <c r="F66" s="7">
+        <v>44707</v>
+      </c>
       <c r="G66" s="7"/>
-      <c r="H66" s="9"/>
+      <c r="H66" s="9">
+        <v>0</v>
+      </c>
       <c r="I66" s="11"/>
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="6">
         <v>35</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="B67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="7">
+        <v>44705</v>
+      </c>
+      <c r="F67" s="7">
+        <v>44707</v>
+      </c>
       <c r="G67" s="7"/>
-      <c r="H67" s="9"/>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
       <c r="I67" s="11"/>
       <c r="J67" s="8"/>
     </row>
-    <row r="68" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="6">
         <v>36</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="B68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="7">
+        <v>44705</v>
+      </c>
+      <c r="F68" s="7">
+        <v>44707</v>
+      </c>
       <c r="G68" s="7"/>
-      <c r="H68" s="9"/>
+      <c r="H68" s="9">
+        <v>0</v>
+      </c>
       <c r="I68" s="11"/>
       <c r="J68" s="8"/>
     </row>
-    <row r="69" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="6">
         <v>37</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
+      <c r="B69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="7">
+        <v>44705</v>
+      </c>
+      <c r="F69" s="7">
+        <v>44707</v>
+      </c>
       <c r="G69" s="7"/>
-      <c r="H69" s="9"/>
+      <c r="H69" s="9">
+        <v>0</v>
+      </c>
       <c r="I69" s="11"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="6">
         <v>38</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
+      <c r="B70" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="7">
+        <v>44705</v>
+      </c>
+      <c r="F70" s="7">
+        <v>44707</v>
+      </c>
       <c r="G70" s="7"/>
-      <c r="H70" s="9"/>
+      <c r="H70" s="9">
+        <v>0</v>
+      </c>
       <c r="I70" s="11"/>
       <c r="J70" s="8"/>
     </row>
-    <row r="71" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="6">
         <v>39</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
+      <c r="B71" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="7">
+        <v>44705</v>
+      </c>
+      <c r="F71" s="7">
+        <v>44707</v>
+      </c>
       <c r="G71" s="7"/>
-      <c r="H71" s="9"/>
+      <c r="H71" s="9">
+        <v>0</v>
+      </c>
       <c r="I71" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J71" s="8"/>
     </row>
-    <row r="72" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="6">
         <v>40</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
+      <c r="B72" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="7">
+        <v>44705</v>
+      </c>
+      <c r="F72" s="7">
+        <v>44707</v>
+      </c>
       <c r="G72" s="7"/>
-      <c r="H72" s="9"/>
+      <c r="H72" s="9">
+        <v>0</v>
+      </c>
       <c r="I72" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J72" s="8"/>
     </row>
-    <row r="73" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="6">
         <v>41</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
+      <c r="B73" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="7">
+        <v>44705</v>
+      </c>
+      <c r="F73" s="7">
+        <v>44707</v>
+      </c>
       <c r="G73" s="7"/>
-      <c r="H73" s="9"/>
+      <c r="H73" s="9">
+        <v>0</v>
+      </c>
       <c r="I73" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J73" s="8"/>
     </row>
-    <row r="74" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="6">
         <v>42</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="B74" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="7">
+        <v>44705</v>
+      </c>
+      <c r="F74" s="7">
+        <v>44707</v>
+      </c>
       <c r="G74" s="7"/>
-      <c r="H74" s="9"/>
+      <c r="H74" s="9">
+        <v>0</v>
+      </c>
       <c r="I74" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J74" s="8"/>
     </row>
-    <row r="75" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="6">
         <v>43</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="8"/>
-    </row>
-    <row r="76" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="7">
+        <v>44705</v>
+      </c>
+      <c r="F75" s="7">
+        <v>44707</v>
+      </c>
+      <c r="G75" s="17"/>
+      <c r="H75" s="9">
+        <v>0</v>
+      </c>
+      <c r="I75" s="18">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="19"/>
+    </row>
+    <row r="76" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="6">
         <v>44</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="8"/>
-    </row>
-    <row r="77" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="7">
+        <v>44705</v>
+      </c>
+      <c r="F76" s="7">
+        <v>44707</v>
+      </c>
+      <c r="G76" s="17"/>
+      <c r="H76" s="9">
+        <v>0</v>
+      </c>
+      <c r="I76" s="18">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="19"/>
+    </row>
+    <row r="77" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="6">
         <v>45</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="8"/>
-    </row>
-    <row r="78" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="7">
+        <v>44705</v>
+      </c>
+      <c r="F77" s="7">
+        <v>44707</v>
+      </c>
+      <c r="G77" s="17"/>
+      <c r="H77" s="9">
+        <v>0</v>
+      </c>
+      <c r="I77" s="18">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="19"/>
+    </row>
+    <row r="78" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="6">
         <v>46</v>
       </c>
@@ -3487,7 +3960,7 @@
       <c r="I78" s="11"/>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="6">
         <v>47</v>
       </c>
@@ -3501,7 +3974,7 @@
       <c r="I79" s="11"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="6">
         <v>48</v>
       </c>
@@ -3515,7 +3988,7 @@
       <c r="I80" s="11"/>
       <c r="J80" s="8"/>
     </row>
-    <row r="81" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="6">
         <v>49</v>
       </c>
@@ -3529,7 +4002,7 @@
       <c r="I81" s="11"/>
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="6">
         <v>50</v>
       </c>
@@ -3543,10 +4016,40 @@
       <c r="I82" s="11"/>
       <c r="J82" s="8"/>
     </row>
+    <row r="83" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="C83" s="1"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="8"/>
+    </row>
+    <row r="84" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="C84" s="1"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="8"/>
+    </row>
+    <row r="85" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="C85" s="1"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="8"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <phoneticPr fontId="6"/>
-  <conditionalFormatting sqref="H2:H82">
+  <conditionalFormatting sqref="H2:H85">
     <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3561,13 +4064,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="タスク表の見出しは [完了] です。タスク完了時に自動的に更新されるアイコン インジケーターです。この列の空白セルは進行中のタスクを示します" sqref="I1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H82" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="タスク表の見出しは [完了] です。タスク完了時に自動的に更新されるアイコン インジケーターです。この列の空白セルは進行中のタスクを示します" sqref="I1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H85">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -3599,7 +4102,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H82</xm:sqref>
+          <xm:sqref>H2:H85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="46" id="{3BD222B5-EE45-4994-9E49-2F7D9A8F7A54}">
@@ -3618,7 +4121,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I2:I82</xm:sqref>
+          <xm:sqref>I2:I85</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/スケジュール管理_Sylph.xlsx
+++ b/スケジュール管理_Sylph.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Documents\GitHub\sleepyProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612D44DA-EAFC-40D1-93B8-A2DFCD213410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
@@ -12,18 +18,20 @@
   <definedNames>
     <definedName name="ColumnTitle1" localSheetId="0">タスク_3[[#Headers],[タスク名]]</definedName>
     <definedName name="ColumnTitle1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$76</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="95">
   <si>
     <t>メモ</t>
   </si>
@@ -680,148 +688,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>試験</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ログイン画面 (単体)</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ログイン画面 (結合)</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ユーザ登録画面 (単体)</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ユーザ登録画面 (結合)</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>試験選択画面 (単体)</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>試験選択画面 (結合)</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>試験画面 (単体)</t>
-    <rPh sb="0" eb="4">
-      <t>シケンガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>試験画面 (結合)</t>
-    <rPh sb="6" eb="8">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>試験結果画面 (単体)</t>
-    <rPh sb="0" eb="4">
-      <t>シケンケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>試験結果画面 (結合)</t>
-    <rPh sb="0" eb="4">
-      <t>シケンケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>試験結果一覧画面 (単体)</t>
-    <rPh sb="0" eb="4">
-      <t>シケンケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>試験結果一覧画面 (結合)</t>
-    <rPh sb="0" eb="4">
-      <t>シケンケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>斎藤</t>
     <rPh sb="0" eb="2">
       <t>サイトウ</t>
@@ -853,6 +719,64 @@
     <t>李</t>
     <rPh sb="0" eb="1">
       <t>リ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験項目書作成</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザ登録画面 </t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">試験選択画面 </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">試験画面 </t>
+    <rPh sb="0" eb="4">
+      <t>シケンガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">試験結果画面 </t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">試験結果一覧画面 </t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験の実施</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッシ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -860,13 +784,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,7 +960,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1088,25 +1012,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="パーセント" xfId="4" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="完了" xfId="3"/>
+    <cellStyle name="完了" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="日付" xfId="5"/>
+    <cellStyle name="日付" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="標準 2" xfId="7"/>
-    <cellStyle name="表のテキスト" xfId="6"/>
+    <cellStyle name="標準 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="表のテキスト" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1126,7 +1053,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1163,7 +1090,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="177" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1202,7 +1129,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1241,7 +1168,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="178" formatCode="m/d;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1286,7 +1213,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1325,7 +1252,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="178" formatCode="m/d;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1370,7 +1297,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1409,7 +1336,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1477,7 +1404,7 @@
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1552,7 +1479,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="タスク リスト" pivot="0" count="4">
+    <tableStyle name="タスク リスト" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="totalRow" dxfId="13"/>
@@ -1571,19 +1498,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="タスク_3" displayName="タスク_3" ref="C1:J77" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="C1:J77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="タスク_3" displayName="タスク_3" ref="C1:J71" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="C1:J71" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
-    <tableColumn id="7" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
-    <tableColumn id="2" name="開始_x000a_予定" dataDxfId="5" dataCellStyle="日付"/>
-    <tableColumn id="8" name="完了_x000a_予定" dataDxfId="4" dataCellStyle="日付"/>
-    <tableColumn id="3" name="完了_x000a_日" dataDxfId="3" dataCellStyle="日付"/>
-    <tableColumn id="4" name="達成率" dataDxfId="2" dataCellStyle="パーセント"/>
-    <tableColumn id="5" name="完了" dataDxfId="1" dataCellStyle="完了">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="開始_x000a_予定" dataDxfId="5" dataCellStyle="日付"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="完了_x000a_予定" dataDxfId="4" dataCellStyle="日付"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="完了_x000a_日" dataDxfId="3" dataCellStyle="日付"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="達成率" dataDxfId="2" dataCellStyle="パーセント"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="完了" dataDxfId="1" dataCellStyle="完了">
       <calculatedColumnFormula>--(タスク_3[[#This Row],[達成率]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="メモ" dataDxfId="0" dataCellStyle="表のテキスト"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="メモ" dataDxfId="0" dataCellStyle="表のテキスト"/>
   </tableColumns>
   <tableStyleInfo name="タスク リスト" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1784,42 +1711,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H78" sqref="H78"/>
+      <selection pane="bottomRight" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="13" customWidth="1"/>
     <col min="9" max="9" width="3" style="5" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.5703125" style="5"/>
+    <col min="10" max="10" width="28.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.44140625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1849,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1877,7 +1804,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1905,7 +1832,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1933,7 +1860,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1961,7 +1888,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1989,7 +1916,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2017,7 +1944,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2045,7 +1972,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2073,7 +2000,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2101,7 +2028,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2129,7 +2056,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2157,7 +2084,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2185,7 +2112,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2213,7 +2140,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2241,7 +2168,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2269,7 +2196,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2297,7 +2224,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2325,7 +2252,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2353,7 +2280,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2381,7 +2308,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2409,7 +2336,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2437,7 +2364,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2465,7 +2392,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2493,7 +2420,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2507,7 +2434,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2535,7 +2462,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2563,7 +2490,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -2591,7 +2518,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -2619,7 +2546,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>26</v>
       </c>
@@ -2647,7 +2574,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>26</v>
       </c>
@@ -2675,7 +2602,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>26</v>
       </c>
@@ -2703,7 +2630,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>26</v>
       </c>
@@ -2731,7 +2658,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>27</v>
       </c>
@@ -2759,7 +2686,7 @@
       <c r="I34" s="11"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>27</v>
       </c>
@@ -2787,7 +2714,7 @@
       <c r="I35" s="11"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>27</v>
       </c>
@@ -2815,7 +2742,7 @@
       <c r="I36" s="11"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>27</v>
       </c>
@@ -2843,7 +2770,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>27</v>
       </c>
@@ -2871,7 +2798,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>27</v>
       </c>
@@ -2899,7 +2826,7 @@
       <c r="I39" s="11"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>28</v>
       </c>
@@ -2927,7 +2854,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>28</v>
       </c>
@@ -2955,7 +2882,7 @@
       <c r="I41" s="11"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>28</v>
       </c>
@@ -2983,7 +2910,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>28</v>
       </c>
@@ -3011,7 +2938,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>28</v>
       </c>
@@ -3039,7 +2966,7 @@
       <c r="I44" s="11"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>28</v>
       </c>
@@ -3067,7 +2994,7 @@
       <c r="I45" s="11"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>29</v>
       </c>
@@ -3095,7 +3022,7 @@
       <c r="I46" s="11"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>29</v>
       </c>
@@ -3123,7 +3050,7 @@
       <c r="I47" s="11"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>29</v>
       </c>
@@ -3151,7 +3078,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>29</v>
       </c>
@@ -3179,7 +3106,7 @@
       <c r="I49" s="11"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>29</v>
       </c>
@@ -3207,7 +3134,7 @@
       <c r="I50" s="11"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>29</v>
       </c>
@@ -3235,7 +3162,7 @@
       <c r="I51" s="11"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>30</v>
       </c>
@@ -3263,7 +3190,7 @@
       <c r="I52" s="11"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>30</v>
       </c>
@@ -3291,7 +3218,7 @@
       <c r="I53" s="11"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>30</v>
       </c>
@@ -3319,7 +3246,7 @@
       <c r="I54" s="11"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>30</v>
       </c>
@@ -3347,7 +3274,7 @@
       <c r="I55" s="11"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>30</v>
       </c>
@@ -3375,7 +3302,7 @@
       <c r="I56" s="11"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>30</v>
       </c>
@@ -3403,7 +3330,7 @@
       <c r="I57" s="11"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>31</v>
       </c>
@@ -3431,7 +3358,7 @@
       <c r="I58" s="11"/>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>31</v>
       </c>
@@ -3459,7 +3386,7 @@
       <c r="I59" s="11"/>
       <c r="J59" s="8"/>
     </row>
-    <row r="60" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>31</v>
       </c>
@@ -3487,7 +3414,7 @@
       <c r="I60" s="11"/>
       <c r="J60" s="8"/>
     </row>
-    <row r="61" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>31</v>
       </c>
@@ -3515,7 +3442,7 @@
       <c r="I61" s="11"/>
       <c r="J61" s="8"/>
     </row>
-    <row r="62" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>31</v>
       </c>
@@ -3543,7 +3470,7 @@
       <c r="I62" s="11"/>
       <c r="J62" s="8"/>
     </row>
-    <row r="63" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>31</v>
       </c>
@@ -3571,7 +3498,7 @@
       <c r="I63" s="11"/>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>32</v>
       </c>
@@ -3599,7 +3526,7 @@
       <c r="I64" s="11"/>
       <c r="J64" s="8"/>
     </row>
-    <row r="65" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>33</v>
       </c>
@@ -3613,18 +3540,18 @@
       <c r="I65" s="11"/>
       <c r="J65" s="8"/>
     </row>
-    <row r="66" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>34</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="E66" s="7">
         <v>44705</v>
@@ -3632,25 +3559,27 @@
       <c r="F66" s="7">
         <v>44707</v>
       </c>
-      <c r="G66" s="7"/>
+      <c r="G66" s="7">
+        <v>44705</v>
+      </c>
       <c r="H66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="E67" s="7">
         <v>44705</v>
@@ -3658,25 +3587,27 @@
       <c r="F67" s="7">
         <v>44707</v>
       </c>
-      <c r="G67" s="7"/>
+      <c r="G67" s="7">
+        <v>44705</v>
+      </c>
       <c r="H67" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="11"/>
       <c r="J67" s="8"/>
     </row>
-    <row r="68" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
-        <v>36</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>86</v>
+        <v>38</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E68" s="7">
         <v>44705</v>
@@ -3684,25 +3615,27 @@
       <c r="F68" s="7">
         <v>44707</v>
       </c>
-      <c r="G68" s="7"/>
+      <c r="G68" s="7">
+        <v>44705</v>
+      </c>
       <c r="H68" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="11"/>
       <c r="J68" s="8"/>
     </row>
-    <row r="69" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
-        <v>37</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E69" s="7">
         <v>44705</v>
@@ -3710,25 +3643,27 @@
       <c r="F69" s="7">
         <v>44707</v>
       </c>
-      <c r="G69" s="7"/>
+      <c r="G69" s="7">
+        <v>44705</v>
+      </c>
       <c r="H69" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="11"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B70" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D70" s="8" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E70" s="7">
         <v>44705</v>
@@ -3736,25 +3671,27 @@
       <c r="F70" s="7">
         <v>44707</v>
       </c>
-      <c r="G70" s="7"/>
+      <c r="G70" s="7">
+        <v>44705</v>
+      </c>
       <c r="H70" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="11"/>
       <c r="J70" s="8"/>
     </row>
-    <row r="71" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
-        <v>39</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>89</v>
+        <v>44</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="E71" s="7">
         <v>44705</v>
@@ -3762,57 +3699,41 @@
       <c r="F71" s="7">
         <v>44707</v>
       </c>
-      <c r="G71" s="7"/>
+      <c r="G71" s="7">
+        <v>44705</v>
+      </c>
       <c r="H71" s="9">
-        <v>0</v>
-      </c>
-      <c r="I71" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="8"/>
-    </row>
-    <row r="72" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="17"/>
+      <c r="J71" s="18"/>
+    </row>
+    <row r="72" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
-        <v>40</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" s="7">
-        <v>44705</v>
-      </c>
-      <c r="F72" s="7">
-        <v>44707</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="9">
-        <v>0</v>
-      </c>
-      <c r="I72" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="H72" s="9"/>
+      <c r="I72" s="11"/>
       <c r="J72" s="8"/>
     </row>
-    <row r="73" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
-        <v>41</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>91</v>
+        <v>47</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E73" s="7">
         <v>44705</v>
@@ -3824,24 +3745,21 @@
       <c r="H73" s="9">
         <v>0</v>
       </c>
-      <c r="I73" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I73" s="11"/>
       <c r="J73" s="8"/>
     </row>
-    <row r="74" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
-        <v>42</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="E74" s="7">
         <v>44705</v>
@@ -3853,24 +3771,21 @@
       <c r="H74" s="9">
         <v>0</v>
       </c>
-      <c r="I74" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I74" s="11"/>
       <c r="J74" s="8"/>
     </row>
-    <row r="75" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="E75" s="7">
         <v>44705</v>
@@ -3878,28 +3793,25 @@
       <c r="F75" s="7">
         <v>44707</v>
       </c>
-      <c r="G75" s="17"/>
+      <c r="G75" s="7"/>
       <c r="H75" s="9">
         <v>0</v>
       </c>
-      <c r="I75" s="18">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="19"/>
-    </row>
-    <row r="76" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="I75" s="11"/>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
-        <v>44</v>
-      </c>
-      <c r="B76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>100</v>
+      <c r="D76" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E76" s="7">
         <v>44705</v>
@@ -3907,28 +3819,25 @@
       <c r="F76" s="7">
         <v>44707</v>
       </c>
-      <c r="G76" s="17"/>
+      <c r="G76" s="7"/>
       <c r="H76" s="9">
         <v>0</v>
       </c>
-      <c r="I76" s="18">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="19"/>
-    </row>
-    <row r="77" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="I76" s="11"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
-        <v>45</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E77" s="7">
         <v>44705</v>
@@ -3936,33 +3845,42 @@
       <c r="F77" s="7">
         <v>44707</v>
       </c>
-      <c r="G77" s="17"/>
+      <c r="G77" s="7"/>
       <c r="H77" s="9">
         <v>0</v>
       </c>
-      <c r="I77" s="18">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+      <c r="I77" s="11"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>52</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="7">
+        <v>44705</v>
+      </c>
+      <c r="F78" s="7">
+        <v>44707</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="9">
         <v>0</v>
       </c>
-      <c r="J77" s="19"/>
-    </row>
-    <row r="78" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="6">
-        <v>46</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="9"/>
       <c r="I78" s="11"/>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3974,9 +3892,9 @@
       <c r="I79" s="11"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3988,9 +3906,9 @@
       <c r="I80" s="11"/>
       <c r="J80" s="8"/>
     </row>
-    <row r="81" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4002,9 +3920,9 @@
       <c r="I81" s="11"/>
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4016,7 +3934,11 @@
       <c r="I82" s="11"/>
       <c r="J82" s="8"/>
     </row>
-    <row r="83" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
+        <v>57</v>
+      </c>
+      <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="8"/>
       <c r="E83" s="7"/>
@@ -4026,7 +3948,11 @@
       <c r="I83" s="11"/>
       <c r="J83" s="8"/>
     </row>
-    <row r="84" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
+        <v>58</v>
+      </c>
+      <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="8"/>
       <c r="E84" s="7"/>
@@ -4036,7 +3962,11 @@
       <c r="I84" s="11"/>
       <c r="J84" s="8"/>
     </row>
-    <row r="85" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6">
+        <v>59</v>
+      </c>
+      <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="8"/>
       <c r="E85" s="7"/>
@@ -4046,10 +3976,74 @@
       <c r="I85" s="11"/>
       <c r="J85" s="8"/>
     </row>
+    <row r="86" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
+        <v>60</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="8"/>
+    </row>
+    <row r="87" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6">
+        <v>61</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="8"/>
+    </row>
+    <row r="88" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6">
+        <v>62</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="8"/>
+    </row>
+    <row r="89" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6">
+        <v>63</v>
+      </c>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
+        <v>55</v>
+      </c>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
+        <v>56</v>
+      </c>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="6"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <phoneticPr fontId="6"/>
-  <conditionalFormatting sqref="H2:H85">
+  <conditionalFormatting sqref="H2:H87 I88">
     <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4064,13 +4058,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="タスク表の見出しは [完了] です。タスク完了時に自動的に更新されるアイコン インジケーターです。この列の空白セルは進行中のタスクを示します" sqref="I1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H85">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="タスク表の見出しは [完了] です。タスク完了時に自動的に更新されるアイコン インジケーターです。この列の空白セルは進行中のタスクを示します" sqref="I1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H87 I88" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -4102,10 +4096,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H85</xm:sqref>
+          <xm:sqref>H2:H87 I88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="46" id="{3BD222B5-EE45-4994-9E49-2F7D9A8F7A54}">
+          <x14:cfRule type="iconSet" priority="103" id="{3BD222B5-EE45-4994-9E49-2F7D9A8F7A54}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4121,7 +4115,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I2:I85</xm:sqref>
+          <xm:sqref>I2:I87 J88</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/スケジュール管理_Sylph.xlsx
+++ b/スケジュール管理_Sylph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Documents\GitHub\sleepyProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612D44DA-EAFC-40D1-93B8-A2DFCD213410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB0F416-C971-459C-B65F-5FD90826ABFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="0" windowWidth="19980" windowHeight="11916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
@@ -1725,11 +1725,11 @@
   </sheetPr>
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H79" sqref="H79"/>
+      <selection pane="bottomRight" activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I73" s="11"/>
       <c r="J73" s="8"/>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="8"/>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I75" s="11"/>
       <c r="J75" s="8"/>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I76" s="11"/>
       <c r="J76" s="8"/>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I77" s="11"/>
       <c r="J77" s="8"/>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I78" s="11"/>
       <c r="J78" s="8"/>
